--- a/DOCUMENTACAO/ECU_AVRAS.xlsx
+++ b/DOCUMENTACAO/ECU_AVRAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dukdu\OneDrive\Estágio\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dukdu\source\repos\a.v.r.a.s\DOCUMENTACAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9183360-1067-43AB-B24A-6E517D369F37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0244B494-682F-4FFA-BD57-3727D2D931AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1918CFFB-6C04-4FB1-A8D1-E8662DF3D991}"/>
+    <workbookView xWindow="15504" yWindow="-120" windowWidth="17280" windowHeight="9024" xr2:uid="{1918CFFB-6C04-4FB1-A8D1-E8662DF3D991}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="126">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -75,9 +75,6 @@
     <t>O caso de uso se inicia quando o ator quita conta a pagar</t>
   </si>
   <si>
-    <t>RF_F11</t>
-  </si>
-  <si>
     <t xml:space="preserve">O caso inicia-se quando o ator abre o caixa. </t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Solicitação concluida</t>
   </si>
   <si>
-    <t>Usuario cadastrado, Solicitação feita</t>
-  </si>
-  <si>
     <t>Cancela o agendamento do salão</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>Produto cadastrado, Produto em estoque, caixa aberto</t>
   </si>
   <si>
-    <t>Reservar_Salão</t>
-  </si>
-  <si>
     <t>RF_B1, RF_F12,</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>2.2 Data Não disponível.</t>
   </si>
   <si>
-    <t>Quitar_Contas_Receber</t>
-  </si>
-  <si>
     <t>Socio</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t>a) Sistema emite mensagem de erro e retorna ao passo 1</t>
   </si>
   <si>
-    <t>Quitar_Conta_pagar</t>
-  </si>
-  <si>
     <t>conta lançada</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>a) Sistema emite mensagem de erro e retorna ao passo 2</t>
   </si>
   <si>
-    <t>abrir_caixa</t>
-  </si>
-  <si>
     <t>1 Ator informa o valor inicial</t>
   </si>
   <si>
@@ -186,12 +168,6 @@
     <t>2.1 Dados inválidos</t>
   </si>
   <si>
-    <t xml:space="preserve">Fechar Caixa </t>
-  </si>
-  <si>
-    <t>RF_F12</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 Ator informa o final do expediente  </t>
   </si>
   <si>
@@ -204,9 +180,6 @@
     <t xml:space="preserve">a) Sistema emite alerta sobre a ocorrência, emite relatório diário e encerra o caso de uso. </t>
   </si>
   <si>
-    <t>Lançar Despesas</t>
-  </si>
-  <si>
     <t>RF_F14,RF_F2,RF_F14</t>
   </si>
   <si>
@@ -249,12 +222,6 @@
     <t>Ator aprova solicitação de sociedade</t>
   </si>
   <si>
-    <t>Ator recusa a solicitação de sociedade</t>
-  </si>
-  <si>
-    <t>Cancelar Agendamento</t>
-  </si>
-  <si>
     <t>RF_F15 RF_F17 RF_F16 RF_B1</t>
   </si>
   <si>
@@ -294,9 +261,6 @@
     <t>Pessoa cadastrado</t>
   </si>
   <si>
-    <t>RF_F3 Aprovar_Sociedade</t>
-  </si>
-  <si>
     <t>RF_B1 , RF_F2, RF_F3, RF_F5, RF_F19</t>
   </si>
   <si>
@@ -315,18 +279,6 @@
     <t>2Sistema valida os dados gera conta receber envia email de boas vindas e finaliza caso de uso</t>
   </si>
   <si>
-    <t>RF_F4 Recusar Sociedade</t>
-  </si>
-  <si>
-    <t>RF_B1,  RF_F4</t>
-  </si>
-  <si>
-    <t>2 Ator recusa usuario</t>
-  </si>
-  <si>
-    <t>3 Sistema valida os dados e finaliza caso de uso</t>
-  </si>
-  <si>
     <t>1 Sistema lista tipo produto</t>
   </si>
   <si>
@@ -342,9 +294,6 @@
     <t>4.1 Sem produto em estoque</t>
   </si>
   <si>
-    <t>RF_F6 Realizar_Venda</t>
-  </si>
-  <si>
     <t>atualizar caixa, atualizar estoque, gerar conta receber</t>
   </si>
   <si>
@@ -363,9 +312,6 @@
     <t>RF_F18, RF_F10, RF_F20</t>
   </si>
   <si>
-    <t>Realizar_Retirada_Caixa</t>
-  </si>
-  <si>
     <t>O caso inicia-se quando o atorinforma retirada de caixa</t>
   </si>
   <si>
@@ -375,9 +321,6 @@
     <t>Gerar_Fluxo_Caixa, Atualizar_Caixa</t>
   </si>
   <si>
-    <t>RF_F_7, RF_F11, RF_F8, RF_F21</t>
-  </si>
-  <si>
     <t xml:space="preserve">a) Sistema emite mensagem de erro retorna ao passo 3. </t>
   </si>
   <si>
@@ -421,13 +364,65 @@
   </si>
   <si>
     <t>a) Sistema adiciona valor pago, porem não quita conta</t>
+  </si>
+  <si>
+    <r>
+      <t>RF_F3 Avaliar_Solicitacao_Sociedade</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>RF_F5 Realizar_Venda</t>
+  </si>
+  <si>
+    <t>RF_F9</t>
+  </si>
+  <si>
+    <t>RF_B1</t>
+  </si>
+  <si>
+    <t>RF_F6 Realizar_Retirada_Caixa</t>
+  </si>
+  <si>
+    <t>RF_F7, RF_F11, RF_F8, RF_F21</t>
+  </si>
+  <si>
+    <t>RF_F9 abrir_caixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF_F10 Fechar Caixa </t>
+  </si>
+  <si>
+    <t>RF_F11 Lançar Despesas</t>
+  </si>
+  <si>
+    <t>RF_F14 Reservar_Salão</t>
+  </si>
+  <si>
+    <t>RF_F16 Cancelar Agendamento</t>
+  </si>
+  <si>
+    <t>RF_F17 Quitar_Conta_pagar</t>
+  </si>
+  <si>
+    <t>RF_F18 Quitar_Contas_Receber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +431,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -576,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -590,12 +593,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -609,19 +617,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,44 +940,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED528F50-C1B3-4029-AB22-068ACA8AFCDB}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B186"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -983,23 +985,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1007,91 +1009,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
@@ -1099,23 +1101,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1123,67 +1125,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -1191,23 +1193,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1215,65 +1217,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
       <c r="B40" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -1281,22 +1283,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1304,165 +1307,167 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
       <c r="B52" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B61" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="65" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B65" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
       <c r="B68" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
       <c r="B69" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
       <c r="B71" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-    </row>
-    <row r="73" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
@@ -1470,15 +1475,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1486,23 +1491,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
@@ -1510,67 +1513,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="12"/>
       <c r="B82" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
       <c r="B84" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1578,21 +1581,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B92" s="2"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -1600,67 +1603,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="12"/>
+      <c r="B95" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="12"/>
+      <c r="B97" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="14"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
@@ -1668,21 +1671,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
@@ -1690,67 +1693,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="12"/>
       <c r="B108" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
       <c r="B110" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,21 +1761,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>6</v>
       </c>
@@ -1780,558 +1785,464 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="12"/>
       <c r="B121" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="12"/>
+      <c r="B122" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="12"/>
+      <c r="B123" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="12"/>
+      <c r="B126" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="12"/>
+      <c r="B127" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="12"/>
+      <c r="B139" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="10"/>
+      <c r="B150" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="10"/>
+      <c r="B151" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="10"/>
+      <c r="B152" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="11"/>
+      <c r="B153" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="12"/>
+      <c r="B155" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="12"/>
+      <c r="B156" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="12"/>
+      <c r="B157" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="7"/>
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="B160" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="B161" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="B163" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="B164" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="B165" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="11"/>
-      <c r="B135" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" s="16"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
-      <c r="B154" s="16"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="B164" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+      <c r="B167" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="10"/>
       <c r="B168" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="B170" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="14"/>
+      <c r="B171" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
-      <c r="B172" s="14"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B174" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
-      <c r="B184" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="7"/>
-      <c r="B185" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
-      <c r="B186" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187"/>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="15"/>
+      <c r="B173" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174"/>
+      <c r="B174"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175"/>
+      <c r="B175"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176"/>
+      <c r="B176"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177"/>
+      <c r="B177"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178"/>
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179"/>
+      <c r="B179"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180"/>
+      <c r="B180"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181"/>
+      <c r="B181"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182"/>
+      <c r="B182"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183"/>
+      <c r="B183"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184"/>
+      <c r="B184"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185"/>
+      <c r="B185"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186"/>
+      <c r="B186"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188"/>
-      <c r="B188"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189"/>
-      <c r="B189"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190"/>
-      <c r="B190"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191"/>
-      <c r="B191"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192"/>
-      <c r="B192"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193"/>
-      <c r="B193"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194"/>
-      <c r="B194"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195"/>
-      <c r="B195"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196"/>
-      <c r="B196"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197"/>
-      <c r="B197"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198"/>
-      <c r="B198"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199"/>
-      <c r="B199"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B200"/>
-    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A154:A157"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="A158:B159"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="A128:B129"/>
+    <mergeCell ref="A111:B112"/>
+    <mergeCell ref="A85:B86"/>
     <mergeCell ref="A72:B73"/>
-    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A98:B99"/>
+    <mergeCell ref="A59:B60"/>
     <mergeCell ref="A42:B43"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A111:B112"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A167:A170"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A171:B172"/>
-    <mergeCell ref="A153:B154"/>
-    <mergeCell ref="A141:B142"/>
-    <mergeCell ref="A124:B125"/>
-    <mergeCell ref="A98:B99"/>
-    <mergeCell ref="A85:B86"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
